--- a/src/results/dataclass/tca.xlsx
+++ b/src/results/dataclass/tca.xlsx
@@ -49,10 +49,10 @@
     <t>aoi</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -488,27 +488,27 @@
         <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N2" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -517,13 +517,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>40</v>
@@ -532,27 +532,27 @@
         <v>65</v>
       </c>
       <c r="M3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I4" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -576,27 +576,27 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K5" t="n">
         <v>40</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="M5" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -631,10 +631,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>92</v>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -675,10 +675,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -708,27 +708,27 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -752,21 +752,21 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -787,27 +787,27 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -840,15 +840,15 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -863,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -875,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
